--- a/AllForms.xlsx
+++ b/AllForms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="3509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="3510">
   <si>
     <t xml:space="preserve">Form</t>
   </si>
@@ -10539,6 +10539,9 @@
   </si>
   <si>
     <t xml:space="preserve">vegetation_data_no_ID ~ nitrat_nitrit + fine_silt + coarse_silt_sand + dexter_n + shannon_bak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetation_data_no_ID ~ 1</t>
   </si>
 </sst>
 </file>
@@ -42408,6 +42411,15 @@
         <v>2947</v>
       </c>
     </row>
+    <row r="3505">
+      <c r="A3505" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B3505"/>
+      <c r="C3505" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
